--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11271.22063709749</v>
+        <v>2242972.906782402</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11271.22063709749</v>
+        <v>2242972.906782402</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47211.45392150059</v>
+        <v>3223647.827727978</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47211.45392150059</v>
+        <v>3223647.827727978</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610143308.574387</v>
+        <v>62890383.68328295</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14561.36012218677</v>
+        <v>1449245.529215752</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28382.61768119034</v>
+        <v>2771591.421564975</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42203.87524019388</v>
+        <v>4093937.313914201</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>58229.06129034482</v>
+        <v>5257098.552061746</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>73531.25339074609</v>
+        <v>6498831.755280471</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>88833.44549114734</v>
+        <v>7740564.958499197</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>104418.3768468216</v>
+        <v>8991300.57960581</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>119958.0699216521</v>
+        <v>10233033.78282454</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>135198.2041209177</v>
+        <v>11433177.31838642</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>150284.404607466</v>
+        <v>12675667.89848915</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>165370.6050940143</v>
+        <v>13918158.47859188</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>180456.7458176702</v>
+        <v>15160649.05869461</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>195542.8865413261</v>
+        <v>16403139.63879733</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>210885.2164254433</v>
+        <v>17617530.70122687</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>227591.1939734514</v>
+        <v>18591514.22779248</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>169.0000000000605</v>
@@ -27052,10 +27052,10 @@
         <v>47.00000000019783</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>143</v>
